--- a/Computational-books&papers/private/802.xlsx
+++ b/Computational-books&papers/private/802.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentuml-my.sharepoint.com/personal/andriy_danylov_uml_edu/Documents/Physics II S20/Labs/Rosters/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentuml-my.sharepoint.com/personal/andriy_danylov_uml_edu/Documents/Physics II S20/Labs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9622AB9-4240-4472-8BFC-FB282A040366}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F839D38-506D-442D-AFAD-D6929758C412}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1035" yWindow="1110" windowWidth="18150" windowHeight="13380"/>
+    <workbookView xWindow="4080" yWindow="1320" windowWidth="14250" windowHeight="12855"/>
   </bookViews>
   <sheets>
-    <sheet name="ps (1)" sheetId="1" r:id="rId1"/>
+    <sheet name="ps (18)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="43">
   <si>
     <t>Notify</t>
   </si>
@@ -101,6 +101,12 @@
   </si>
   <si>
     <t>Freshman</t>
+  </si>
+  <si>
+    <t>Lattanzi,Geoffrey Douglas</t>
+  </si>
+  <si>
+    <t>Kennedy College of Sciences - Mathematics (BS) : General</t>
   </si>
   <si>
     <t>Mallia,Cameron James</t>
@@ -1022,7 +1028,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1290,7 +1296,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="3">
-        <v>1788086</v>
+        <v>1858680</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>27</v>
@@ -1300,10 +1306,10 @@
         <v>1</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
@@ -1312,20 +1318,20 @@
         <v>1</v>
       </c>
       <c r="C13" s="3">
-        <v>1828978</v>
+        <v>1788086</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="3">
         <v>1</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
@@ -1334,7 +1340,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="3">
-        <v>1834927</v>
+        <v>1828978</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>30</v>
@@ -1344,10 +1350,10 @@
         <v>1</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
@@ -1356,20 +1362,20 @@
         <v>1</v>
       </c>
       <c r="C15" s="3">
-        <v>1694444</v>
+        <v>1834927</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="3">
         <v>1</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
@@ -1378,7 +1384,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="3">
-        <v>1300326</v>
+        <v>1694444</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>33</v>
@@ -1388,7 +1394,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>21</v>
@@ -1400,20 +1406,20 @@
         <v>1</v>
       </c>
       <c r="C17" s="3">
-        <v>1281373</v>
+        <v>1300326</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="3">
         <v>1</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
@@ -1422,7 +1428,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="3">
-        <v>1832105</v>
+        <v>1281373</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>36</v>
@@ -1432,41 +1438,41 @@
         <v>1</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="39" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C19" s="3">
-        <v>1743854</v>
+        <v>1832105</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="3">
         <v>1</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="39" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C20" s="3">
-        <v>1638117</v>
+        <v>1743854</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>39</v>
@@ -1479,6 +1485,28 @@
         <v>40</v>
       </c>
       <c r="H20" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1638117</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="3">
+        <v>1</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H21" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1687,7 +1715,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B434716-6619-4D65-BF4B-40A97C200DAB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D575E40A-5552-4610-825A-85A6BAB9E0FE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -1705,7 +1733,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9FF5E449-3515-4621-AC8E-BE4AFAC382F6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D99126AC-9ED9-4029-9E85-8F204E124CEB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
@@ -1713,16 +1741,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9CFC0BE1-DEFA-4AAA-9FDB-BF0C0428F2E0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A2E79E7-946B-4703-9E62-207E9FE170E1}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="c740888d-e76c-4a8c-9ce1-656901917f99"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="c740888d-e76c-4a8c-9ce1-656901917f99"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>

--- a/Computational-books&papers/private/802.xlsx
+++ b/Computational-books&papers/private/802.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentuml-my.sharepoint.com/personal/andriy_danylov_uml_edu/Documents/Physics II S20/Labs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yifan\Documents\Github\Coupling-Model\Computational-books&amp;papers\private\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F839D38-506D-442D-AFAD-D6929758C412}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{746F66C8-06CA-4395-A700-44199779E096}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4080" yWindow="1320" windowWidth="14250" windowHeight="12855"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ps (18)" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="61">
   <si>
     <t>Notify</t>
   </si>
@@ -149,12 +149,66 @@
   </si>
   <si>
     <t>Francis College of Engineering - Plastics Engineering (BSE)</t>
+  </si>
+  <si>
+    <t>lab1</t>
+  </si>
+  <si>
+    <t>work1</t>
+  </si>
+  <si>
+    <t>lab2</t>
+  </si>
+  <si>
+    <t>work2</t>
+  </si>
+  <si>
+    <t>lab3</t>
+  </si>
+  <si>
+    <t>work3</t>
+  </si>
+  <si>
+    <t>lab4</t>
+  </si>
+  <si>
+    <t>work4</t>
+  </si>
+  <si>
+    <t>lab5</t>
+  </si>
+  <si>
+    <t>work5</t>
+  </si>
+  <si>
+    <t>lab6</t>
+  </si>
+  <si>
+    <t>work6</t>
+  </si>
+  <si>
+    <t>a++</t>
+  </si>
+  <si>
+    <t>b+++</t>
+  </si>
+  <si>
+    <t>c+++</t>
+  </si>
+  <si>
+    <t>d+</t>
+  </si>
+  <si>
+    <t>e+++</t>
+  </si>
+  <si>
+    <t>f++</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1027,10 +1081,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:V21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1044,7 +1100,7 @@
     <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1069,8 +1125,46 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -1091,8 +1185,22 @@
       <c r="H2" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
@@ -1113,8 +1221,22 @@
       <c r="H3" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
     </row>
-    <row r="4" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="3" t="s">
         <v>1</v>
@@ -1135,8 +1257,22 @@
       <c r="H4" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
@@ -1157,8 +1293,22 @@
       <c r="H5" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
     </row>
-    <row r="6" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>1</v>
@@ -1179,8 +1329,26 @@
       <c r="H6" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="I6" s="1">
+        <v>50</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
     </row>
-    <row r="7" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="3" t="s">
         <v>1</v>
@@ -1201,8 +1369,22 @@
       <c r="H7" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
     </row>
-    <row r="8" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="3" t="s">
         <v>1</v>
@@ -1223,8 +1405,26 @@
       <c r="H8" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="I8" s="1">
+        <v>54</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
     </row>
-    <row r="9" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="3" t="s">
         <v>1</v>
@@ -1245,8 +1445,26 @@
       <c r="H9" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="I9" s="1">
+        <v>53</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
     </row>
-    <row r="10" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="3" t="s">
         <v>1</v>
@@ -1267,8 +1485,22 @@
       <c r="H10" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
     </row>
-    <row r="11" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="3" t="s">
         <v>1</v>
@@ -1289,8 +1521,26 @@
       <c r="H11" s="3" t="s">
         <v>26</v>
       </c>
+      <c r="I11" s="1">
+        <v>50</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
     </row>
-    <row r="12" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="3" t="s">
         <v>1</v>
@@ -1311,8 +1561,22 @@
       <c r="H12" s="3" t="s">
         <v>26</v>
       </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
     </row>
-    <row r="13" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="3" t="s">
         <v>1</v>
@@ -1333,8 +1597,26 @@
       <c r="H13" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="I13" s="1">
+        <v>54</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
     </row>
-    <row r="14" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="3" t="s">
         <v>1</v>
@@ -1355,8 +1637,22 @@
       <c r="H14" s="3" t="s">
         <v>26</v>
       </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
     </row>
-    <row r="15" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="3" t="s">
         <v>1</v>
@@ -1377,8 +1673,26 @@
       <c r="H15" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="I15" s="1">
+        <v>59</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
     </row>
-    <row r="16" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="3" t="s">
         <v>1</v>
@@ -1399,8 +1713,26 @@
       <c r="H16" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="I16" s="1">
+        <v>47</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
     </row>
-    <row r="17" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="3" t="s">
         <v>1</v>
@@ -1421,8 +1753,22 @@
       <c r="H17" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
     </row>
-    <row r="18" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="3" t="s">
         <v>1</v>
@@ -1443,8 +1789,26 @@
       <c r="H18" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="I18" s="1">
+        <v>54</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
     </row>
-    <row r="19" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="3" t="s">
         <v>1</v>
@@ -1465,8 +1829,22 @@
       <c r="H19" s="3" t="s">
         <v>26</v>
       </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
     </row>
-    <row r="20" spans="1:8" ht="39" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" ht="39" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="3" t="s">
         <v>1</v>
@@ -1487,8 +1865,22 @@
       <c r="H20" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
     </row>
-    <row r="21" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="3" t="s">
         <v>1</v>
@@ -1509,6 +1901,24 @@
       <c r="H21" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="I21" s="1">
+        <v>53</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1516,6 +1926,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005789861B4AC166498CF31F7C64E93238" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="20b9ac66db6402ca7b720c4647acc95e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c740888d-e76c-4a8c-9ce1-656901917f99" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e6087beea90c2e613138f32a5d0e4024" ns3:_="">
     <xsd:import namespace="c740888d-e76c-4a8c-9ce1-656901917f99"/>
@@ -1699,22 +2124,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A2E79E7-946B-4703-9E62-207E9FE170E1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="c740888d-e76c-4a8c-9ce1-656901917f99"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D99126AC-9ED9-4029-9E85-8F204E124CEB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D575E40A-5552-4610-825A-85A6BAB9E0FE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1730,28 +2164,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D99126AC-9ED9-4029-9E85-8F204E124CEB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A2E79E7-946B-4703-9E62-207E9FE170E1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="c740888d-e76c-4a8c-9ce1-656901917f99"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Computational-books&papers/private/802.xlsx
+++ b/Computational-books&papers/private/802.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yifan\Documents\Github\Coupling-Model\Computational-books&amp;papers\private\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{746F66C8-06CA-4395-A700-44199779E096}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94573E80-8E42-4549-9D11-D9C863F6567C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="65">
   <si>
     <t>Notify</t>
   </si>
@@ -203,6 +203,18 @@
   </si>
   <si>
     <t>f++</t>
+  </si>
+  <si>
+    <t>g++</t>
+  </si>
+  <si>
+    <t>h+++</t>
+  </si>
+  <si>
+    <t>j+++</t>
+  </si>
+  <si>
+    <t>i++</t>
   </si>
 </sst>
 </file>
@@ -1085,7 +1097,7 @@
   <dimension ref="A1:V21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1185,8 +1197,12 @@
       <c r="H2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
+      <c r="I2" s="1">
+        <v>57</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -1221,8 +1237,12 @@
       <c r="H3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+      <c r="I3" s="1">
+        <v>52</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -1257,8 +1277,12 @@
       <c r="H4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="I4" s="1">
+        <v>51</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -1293,8 +1317,12 @@
       <c r="H5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+      <c r="I5" s="1">
+        <v>52</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -1369,8 +1397,12 @@
       <c r="H7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
+      <c r="I7" s="1">
+        <v>50</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -1486,7 +1518,9 @@
         <v>13</v>
       </c>
       <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="J10" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -1561,8 +1595,12 @@
       <c r="H12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
+      <c r="I12" s="1">
+        <v>52</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
@@ -1753,8 +1791,12 @@
       <c r="H17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
+      <c r="I17" s="1">
+        <v>36</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -1829,8 +1871,12 @@
       <c r="H19" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
+      <c r="I19" s="1">
+        <v>49</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
@@ -1865,8 +1911,12 @@
       <c r="H20" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
+      <c r="I20" s="1">
+        <v>53</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
@@ -1926,21 +1976,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005789861B4AC166498CF31F7C64E93238" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="20b9ac66db6402ca7b720c4647acc95e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c740888d-e76c-4a8c-9ce1-656901917f99" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e6087beea90c2e613138f32a5d0e4024" ns3:_="">
     <xsd:import namespace="c740888d-e76c-4a8c-9ce1-656901917f99"/>
@@ -2124,31 +2159,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A2E79E7-946B-4703-9E62-207E9FE170E1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="c740888d-e76c-4a8c-9ce1-656901917f99"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D99126AC-9ED9-4029-9E85-8F204E124CEB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D575E40A-5552-4610-825A-85A6BAB9E0FE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2164,4 +2190,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D99126AC-9ED9-4029-9E85-8F204E124CEB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A2E79E7-946B-4703-9E62-207E9FE170E1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="c740888d-e76c-4a8c-9ce1-656901917f99"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>